--- a/BalanceSheet/NOW_bal.xlsx
+++ b/BalanceSheet/NOW_bal.xlsx
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>89000000.0</v>
+        <v>109000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-35375000.0</v>
+        <v>34000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-35532000.0</v>
+        <v>51000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>16645000.0</v>
+        <v>86000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>20679000.0</v>
+        <v>74000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>52960000.0</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1000000.0</v>
+        <v>-643000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-18041000.0</v>
+        <v>-673000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>-3263000.0</v>
+        <v>-621000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-1650000.0</v>
+        <v>-594000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-1527000.0</v>
+        <v>-586000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>-600000000.0</v>
@@ -6272,7 +6272,7 @@
         <v>-660000000.0</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>-562000000.0</v>
+        <v>-943114000.0</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>-735226000.0</v>
@@ -6405,7 +6405,7 @@
         <v>1203000000.0</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>1131000000.0</v>
+        <v>747981000.0</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>735847000.0</v>
